--- a/manuscript/Table.xlsx
+++ b/manuscript/Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gt510\Documents\Korea\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6FC81B2-F06C-448E-BE1B-BF3D2211D96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8CD7C-10B8-422B-AA9C-D05A6DE0607A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8244" xr2:uid="{61384BA6-5267-4327-A4DC-B0D2225D23FD}"/>
   </bookViews>
@@ -38,35 +38,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>~1200</t>
+    <t>Income/Year</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1200~4600</t>
+    <t>(A) ~1200</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4600~8800</t>
+    <t>(B) 1200~4600</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8800~15000</t>
+    <t>(C) 4600~8800</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15000~30000</t>
+    <t>(D) 8800~15000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30000~50000</t>
+    <t>(F) 30000~50000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>50000~</t>
+    <t>(E) 15000~30000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Income/Year</t>
+    <t>(G) 50000~</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -347,59 +347,59 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,72 +718,72 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6">
         <v>2008</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>2009</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>2017</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
         <v>0.08</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.06</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.06</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.06</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.06</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>0.06</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="10">
         <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
         <v>0.17</v>
       </c>
       <c r="C3" s="2">
@@ -801,15 +801,15 @@
       <c r="G3" s="2">
         <v>0.15</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="11">
         <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
         <v>0.26</v>
       </c>
       <c r="C4" s="2">
@@ -827,21 +827,21 @@
       <c r="G4" s="2">
         <v>0.24</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="11">
         <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14">
         <v>0.35</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="16">
         <v>0.35</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="16">
         <v>0.35</v>
       </c>
       <c r="E5" s="2">
@@ -850,73 +850,73 @@
       <c r="F5" s="2">
         <v>0.35</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="16">
         <v>0.35</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="11">
         <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="2">
         <v>0.35</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="16">
         <v>0.38</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="16">
+      <c r="G6" s="16"/>
+      <c r="H6" s="11">
         <v>0.38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16">
         <v>0.38</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="2">
         <v>0.38</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="11">
         <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19">
+      <c r="A8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="12">
         <v>0.4</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="13">
         <v>0.42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
